--- a/[Issue]DriverSharon.xlsx
+++ b/[Issue]DriverSharon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="120" windowWidth="19010" windowHeight="7130" activeTab="3"/>
+    <workbookView xWindow="80" yWindow="120" windowWidth="19010" windowHeight="7130"/>
   </bookViews>
   <sheets>
     <sheet name="TT Issue" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,14 @@
     <sheet name="工作表2" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TT Issue'!$A$1:$I$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TT Issue'!$A$1:$I$58</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="292">
   <si>
     <t>TT Number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -22742,10 +22742,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[ARA][SSRStressTest]dog_virtual_root.c:212:User-PD grace timer expired for wlan_process (ASID: 1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>typedef enum {</t>
   </si>
   <si>
@@ -22956,10 +22952,6 @@
   </si>
   <si>
     <t xml:space="preserve">  UIM_MANAGE_CHANNEL_ST,                    /* Manage Channel */</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -23474,8 +23466,1285 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">[6/25] Open case#03543434. TT &amp; UTS </t>
+    <t>Audio</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hades</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DUT1(MO),DUT2(MT)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>進行擴音通話</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>雙方同時講話</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,DUT2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的聲音斷斷續續。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[7/09] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>請</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BSP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">幫忙分析。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Modem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>送出的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0x1804 Tx Vocoder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">聲音已經為小聲，造成對方聽到聲音也為偏小聲。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SQ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>借</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>機台，通話錄音檔：沒有擴音時，通話為正常；開擴音時，通話數</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1~10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1~8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>幾乎聽不到=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DUT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">端發話時就發生問題。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SQ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>借</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>機台，用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">SMMI Test  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>麥克風、麥克風</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>測試</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">PASS=&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>應不為</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>HW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">問題。
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Draco</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jedi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[7/12] Sharon: Need AS comment, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>同台車測試，約同時出現通話雙向無聲，都有出現</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>RLF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>後回復通話。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Case#1217317 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>動態</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Draco1(+0 02:05:25~ 02:05:43) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>靜態</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Jedi 2
+Case#1217304 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>動態</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Jedi1 (+0 02:05:32~ 02:05:50)   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>靜態</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Jedi 3
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[ZS620KL]FT-TW-CHT-CSFB: DUT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">通話時發生短暫雙向短暫靜音
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PIC: Sharon/Frank</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[ZS600KL]FT-TW-CHT-CSFB: DUT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">通話時發生短暫靜音
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PIC: Sharon/Frank</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[6/12] Sharon:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>此無聲問題整通無聲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(0x1805</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>就已無聲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，只有響鈴聲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>鈴聲來自於網路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> progress_desc = 8 (0x8))</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，請</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>AS/Frank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">幫忙再分析問題。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[6/13] Frank open</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> case#03527336 need follow this case.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[6/15] Qcom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>台北</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Wade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>看到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>third party audio module</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>有以下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>error log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，請</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Audio team</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">協助分析
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[6/19] BSP/Ken: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>正常通話也有這些紅色的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">NXP library </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>印出的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">error messages, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>所以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ignore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>這些</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>error messages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>應為合理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>所以已請</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Qualcomm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>再明確指出造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>call set up failure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">error messages from fail case QXDM log </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>及相對應的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">logcat_log
+[6/26] Collect Customer Fail Log, Bruno and YT check : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>同樣因為沒有收到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>VSS_ISTREAM_EVT_READY (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>modem START_VOICE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>無</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> APPs START_VOICE)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，所以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">vocoder </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>modem voice adapter module</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">被丟掉了。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[6/29] BSP/Ken</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>今天用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Qualcomm QRD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>手機</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (SDM660 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>版本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>藍芽連接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Samsung Gear S3 classic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>手錶測試</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>也有發生無聲現象</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crash</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> ZE520KL[Leo] [Leo_JP_O]CDFT-Chengdu-CUCC/CMCC:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CUCC 4G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>強信號環境</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(-98dBm)Idle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>過程中喚醒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DUT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，連續彈出兩次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Modem crash(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>類型未知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)(2/8H)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[7/18] no Log, ask FT/Sonic to attached log.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ARA][SSRStressTest]dog_virtual_root.c:212:User-PD grace timer expired for wlan_process (ASID: 1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[6/25] Open case#03544420. TT &amp; UTS </t>
     </r>
     <r>
       <rPr>
@@ -23552,1160 +24821,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">[7/06] Test build M3.15.22 +Qualcomm tx debug to Renna. case#03544420 </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Audio</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hades</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>DUT1(MO),DUT2(MT)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>進行擴音通話</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>雙方同時講話</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,DUT2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>的聲音斷斷續續。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[7/09] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>請</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>BSP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">幫忙分析。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Modem</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>送出的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>0x1804 Tx Vocoder</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">聲音已經為小聲，造成對方聽到聲音也為偏小聲。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>SQ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>借</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>MT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>機台，通話錄音檔：沒有擴音時，通話為正常；開擴音時，通話數</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1~10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1~8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>幾乎聽不到=&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>DUT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">端發話時就發生問題。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>SQ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>借</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>MT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>機台，用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">SMMI Test  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>麥克風、麥克風</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>測試</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">PASS=&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>應不為</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>HW</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">問題。
-</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Draco</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jedi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[7/12] Sharon: Need AS comment, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>同台車測試，約同時出現通話雙向無聲，都有出現</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>RLF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>後回復通話。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Case#1217317 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>動態</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Draco1(+0 02:05:25~ 02:05:43) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>靜態</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Jedi 2
-Case#1217304 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>動態</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Jedi1 (+0 02:05:32~ 02:05:50)   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>靜態</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Jedi 3
-</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[ZS620KL]FT-TW-CHT-CSFB: DUT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">通話時發生短暫雙向短暫靜音
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>PIC: Sharon/Frank</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[ZS600KL]FT-TW-CHT-CSFB: DUT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">通話時發生短暫靜音
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>PIC: Sharon/Frank</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[6/21] VED_EVB Finish.
-[7/10] Implement GPS NV.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[6/12] Sharon:  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>此無聲問題整通無聲</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(0x1805</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>就已無聲</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，只有響鈴聲</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>鈴聲來自於網路</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> progress_desc = 8 (0x8))</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，請</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>AS/Frank</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">幫忙再分析問題。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[6/13] Frank open</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> case#03527336 need follow this case.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[6/15] Qcom</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>台北</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Wade</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>看到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>third party audio module</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>有以下</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>error log</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，請</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Audio team</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">協助分析
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[6/19] BSP/Ken: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>正常通話也有這些紅色的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">NXP library </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>印出的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">error messages, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>所以</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ignore</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>這些</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>error messages</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>應為合理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>所以已請</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Qualcomm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>再明確指出造成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>call set up failure</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">error messages from fail case QXDM log </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>及相對應的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">logcat_log
-[6/26] Collect Customer Fail Log, Bruno and YT check : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>同樣因為沒有收到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>VSS_ISTREAM_EVT_READY (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>modem START_VOICE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>無</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> APPs START_VOICE)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，所以</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">vocoder </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>modem voice adapter module</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">被丟掉了。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[6/29] BSP/Ken</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>今天用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Qualcomm QRD </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>手機</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (SDM660 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>版本</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>藍芽連接</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Samsung Gear S3 classic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>手錶測試</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>也有發生無聲現象</t>
+      <t>[7/06] Test build M3.15.22 +Qualcomm tx debug to Renna. case#03544420 
+[7/19] Monitor this issue.  (Close)</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -24853,12 +24970,140 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>maintain)</t>
+      <t>maintain)
+[7/17] RF card ID: 426 hwid426_bid255_pid255
+Release VEE for RFDriver review.</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>[6/21] VED_EVB Finish. - NV#28967 RFNV_RF_CARD_CONFIG_I = 377 (SDM660_SDR660_APT_CHINA_4101_B71)
+[7/10] Implement GPS NV.
+[7/18] Release VEB for WCDMA B19 Tx static NV (avoid to crash)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jedi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIM1 SIM2 Swap (Mentor: Vincent)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[7/20] Vincent: case#03584219 [JEDI]SIM1/SIM2 swap how to setting GPIO
+(History) ZE500KL case#01995114 
+ Swap sim1 and sim2 GPIO for chipset 8916 &amp; 8929 as below:
+ uim_uartdm_num_table[]
+ uim_controller_irq_num_table[]
+ uim_uartdm_irq_num_table[]
+ uim_pmic_npa_resource_table[]
+ uim_gpio_table[]
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>驗證了兩台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ZE500KL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>和一台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ZE500KG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>可正常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>work.
+ QXDM LOG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>與</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>at+cimi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">測試正常。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -25042,7 +25287,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -25052,12 +25297,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -25107,7 +25346,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -25147,13 +25386,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -25165,13 +25401,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -25183,22 +25416,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -25528,12 +25761,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G201" sqref="G201"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13.5"/>
@@ -25542,1625 +25774,1544 @@
     <col min="2" max="3" width="6.1796875" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="58.90625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="113.90625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="58.90625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="113.90625" style="21" customWidth="1"/>
     <col min="8" max="8" width="16.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="108.90625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="15" customFormat="1">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:8" s="14" customFormat="1">
+      <c r="A1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="27" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="19"/>
+    <row r="2" spans="1:8" ht="81">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1124422</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>134</v>
+      </c>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" hidden="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="19"/>
+    <row r="3" spans="1:8" ht="27">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="23">
+        <v>1139341</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>105</v>
+      </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" hidden="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="19"/>
+    <row r="4" spans="1:8" ht="39.5">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="23">
+        <v>1135727</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>102</v>
+      </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" hidden="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="4"/>
+    <row r="5" spans="1:8" ht="50">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="4">
+        <v>3311289</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" hidden="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="4"/>
+    <row r="6" spans="1:8" ht="251">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" hidden="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="19"/>
+    <row r="7" spans="1:8" ht="90.5">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="23">
+        <v>1149014</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>104</v>
+      </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" hidden="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="4"/>
+    <row r="8" spans="1:8" ht="174.5">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="23">
+        <v>1145684</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" s="2">
+        <v>3322923</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" hidden="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="4"/>
+    <row r="9" spans="1:8" ht="93.5">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="23">
+        <v>1139341</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" hidden="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="4"/>
+    <row r="10" spans="1:8" ht="54">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="23">
+        <v>1150655</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" hidden="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="4"/>
+    <row r="11" spans="1:8" ht="146.5">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="23">
+        <v>1147426</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8" hidden="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="4"/>
+    <row r="12" spans="1:8" ht="121.5">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="23">
+        <v>1147424</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" hidden="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="4"/>
+    <row r="13" spans="1:8" ht="27">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="23">
+        <v>1154946</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8" hidden="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="4"/>
+    <row r="14" spans="1:8" ht="102">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="23">
+        <v>1149190</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="15">
+        <v>3328670</v>
+      </c>
     </row>
-    <row r="15" spans="1:8" hidden="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="4"/>
+    <row r="15" spans="1:8" ht="92.5">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="23">
+        <v>1162089</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:8" hidden="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="4"/>
+    <row r="16" spans="1:8" ht="229.5">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="23">
+        <v>1159123</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:8" hidden="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="4"/>
+    <row r="17" spans="1:8" ht="38.5">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="23">
+        <v>1157604</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="15">
+        <v>3353622</v>
+      </c>
     </row>
-    <row r="18" spans="1:8" hidden="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="4"/>
+    <row r="18" spans="1:8" ht="39.5">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="23">
+        <v>1157586</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="15">
+        <v>3352671</v>
+      </c>
     </row>
-    <row r="19" spans="1:8" hidden="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="4"/>
+    <row r="19" spans="1:8" ht="133">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="23">
+        <v>1172400</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="20" spans="1:8" hidden="1">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="4"/>
+    <row r="20" spans="1:8" ht="243">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="23">
+        <v>1168931</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:8" hidden="1">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="4"/>
+    <row r="21" spans="1:8" ht="39.5">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1184432</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" s="15">
+        <v>3442464</v>
+      </c>
     </row>
-    <row r="22" spans="1:8" hidden="1">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="4"/>
+    <row r="22" spans="1:8" ht="134">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="23">
+        <v>1174974</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="1:8" hidden="1">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="4"/>
+    <row r="23" spans="1:8" ht="135">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="23">
+        <v>1164998</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="1:8" hidden="1">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="4"/>
+    <row r="24" spans="1:8" ht="104">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1185683</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" s="15">
+        <v>3461348</v>
+      </c>
     </row>
-    <row r="25" spans="1:8" ht="81" hidden="1">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D25" s="4">
-        <v>1124422</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="H25" s="4"/>
+    <row r="25" spans="1:8" ht="121.5">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="23">
+        <v>1191325</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="1:8" ht="27" hidden="1">
-      <c r="A26" s="4"/>
-      <c r="B26" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="25">
-        <v>1139341</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="G26" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="H26" s="4"/>
+    <row r="26" spans="1:8" ht="53">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" ht="39.5" hidden="1">
-      <c r="A27" s="4"/>
-      <c r="B27" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="25">
-        <v>1135727</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="H27" s="4"/>
+    <row r="27" spans="1:8" ht="160">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1188395</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" ht="50" hidden="1">
-      <c r="A28" s="4"/>
-      <c r="B28" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="G28" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="H28" s="4">
-        <v>3311289</v>
-      </c>
+    <row r="28" spans="1:8" ht="107">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="23">
+        <v>1192485</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" ht="251" hidden="1">
-      <c r="A29" s="4"/>
-      <c r="B29" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="G29" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>98</v>
-      </c>
+    <row r="29" spans="1:8" ht="145.5">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" ht="90.5" hidden="1">
-      <c r="A30" s="4"/>
-      <c r="B30" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="25">
-        <v>1149014</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="G30" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="H30" s="4"/>
+    <row r="30" spans="1:8" ht="293">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="23">
+        <v>1195076</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" ht="174.5" hidden="1">
-      <c r="A31" s="2"/>
-      <c r="B31" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="25">
-        <v>1145684</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G31" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="H31" s="2">
-        <v>3322923</v>
-      </c>
+    <row r="31" spans="1:8" ht="54">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1197131</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" ht="93.5" hidden="1">
-      <c r="A32" s="4"/>
-      <c r="B32" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="25">
-        <v>1139341</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="G32" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="H32" s="16"/>
+    <row r="32" spans="1:8" ht="39.5">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="23">
+        <v>1196815</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="H32" s="3">
+        <v>3477576</v>
+      </c>
     </row>
-    <row r="33" spans="1:8" ht="54" hidden="1">
-      <c r="A33" s="2"/>
-      <c r="B33" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="25">
-        <v>1150655</v>
-      </c>
-      <c r="E33" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="G33" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>4</v>
-      </c>
+    <row r="33" spans="1:8" ht="38.5">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="23">
+        <v>1197229</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" ht="146.5" hidden="1">
-      <c r="A34" s="4"/>
-      <c r="B34" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" s="25">
-        <v>1147426</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="F34" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="G34" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="H34" s="16"/>
+    <row r="34" spans="1:8" ht="38.5">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="23">
+        <v>1197235</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" ht="121.5" hidden="1">
-      <c r="A35" s="4"/>
-      <c r="B35" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" s="25">
-        <v>1147424</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="F35" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="G35" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="H35" s="16"/>
+    <row r="35" spans="1:8" ht="112.5">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="23">
+        <v>1198000</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" ht="27" hidden="1">
-      <c r="A36" s="4"/>
-      <c r="B36" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" s="25">
-        <v>1154946</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F36" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="G36" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="H36" s="16"/>
+    <row r="36" spans="1:8" ht="50">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="H36" s="3">
+        <v>3495415</v>
+      </c>
     </row>
-    <row r="37" spans="1:8" ht="102" hidden="1">
-      <c r="A37" s="4"/>
-      <c r="B37" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" s="25">
-        <v>1149190</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="F37" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="G37" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="H37" s="16">
-        <v>3328670</v>
-      </c>
+    <row r="37" spans="1:8" ht="66.5">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" ht="92.5" hidden="1">
-      <c r="A38" s="4"/>
-      <c r="B38" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="25">
-        <v>1162089</v>
-      </c>
-      <c r="E38" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="F38" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="G38" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="H38" s="16"/>
+    <row r="38" spans="1:8" ht="104">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="H38" s="3">
+        <v>3495633</v>
+      </c>
     </row>
-    <row r="39" spans="1:8" ht="229.5" hidden="1">
-      <c r="A39" s="4"/>
-      <c r="B39" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="25">
-        <v>1159123</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F39" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="G39" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="H39" s="16"/>
+    <row r="39" spans="1:8" ht="161">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3">
+        <v>1202186</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:8" ht="38.5" hidden="1">
-      <c r="A40" s="4"/>
-      <c r="B40" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D40" s="25">
-        <v>1157604</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F40" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G40" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="H40" s="16">
-        <v>3353622</v>
-      </c>
+    <row r="40" spans="1:8" ht="39.5">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:8" ht="39.5" hidden="1">
-      <c r="A41" s="4"/>
-      <c r="B41" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" s="25">
-        <v>1157586</v>
-      </c>
-      <c r="E41" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F41" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="G41" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="H41" s="16">
-        <v>3352671</v>
+    <row r="41" spans="1:8" ht="196.5">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1202186</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="H41" s="30" t="s">
+        <v>174</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="133" hidden="1">
-      <c r="A42" s="4"/>
-      <c r="B42" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42" s="25">
-        <v>1172400</v>
-      </c>
-      <c r="E42" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F42" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="G42" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="H42" s="17" t="s">
-        <v>65</v>
-      </c>
+    <row r="42" spans="1:8" ht="37.5">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8" ht="243" hidden="1">
-      <c r="A43" s="4"/>
-      <c r="B43" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D43" s="25">
-        <v>1168931</v>
-      </c>
-      <c r="E43" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="F43" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="G43" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="H43" s="16"/>
+    <row r="43" spans="1:8" ht="37.5">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:8" ht="39.5" hidden="1">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D44" s="4">
-        <v>1184432</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F44" s="16" t="s">
-        <v>61</v>
+    <row r="44" spans="1:8" ht="53">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="H44" s="16">
-        <v>3442464</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8" ht="134" hidden="1">
-      <c r="A45" s="4"/>
-      <c r="B45" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="25">
-        <v>1174974</v>
-      </c>
-      <c r="E45" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F45" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="H45" s="16"/>
+    <row r="45" spans="1:8" ht="77">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F45" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:8" ht="135" hidden="1">
-      <c r="A46" s="4"/>
-      <c r="B46" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46" s="25">
-        <v>1164998</v>
-      </c>
-      <c r="E46" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="F46" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="G46" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="H46" s="16"/>
+    <row r="46" spans="1:8" ht="138.5">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F46" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="1:8" ht="104" hidden="1">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D47" s="4">
-        <v>1185683</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>53</v>
+    <row r="47" spans="1:8" ht="76">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F47" s="29" t="s">
+        <v>155</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H47" s="16">
-        <v>3461348</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="1:8" ht="121.5" hidden="1">
-      <c r="A48" s="4"/>
-      <c r="B48" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D48" s="25">
-        <v>1191325</v>
-      </c>
-      <c r="E48" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F48" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G48" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="H48" s="16"/>
+    <row r="48" spans="1:8" ht="62.5">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="1:8" ht="53" hidden="1">
-      <c r="A49" s="3"/>
+    <row r="49" spans="1:9" ht="52">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
       <c r="B49" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>49</v>
+        <v>172</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G49" s="20" t="s">
-        <v>92</v>
+        <v>163</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>175</v>
       </c>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="1:8" ht="160" hidden="1">
-      <c r="A50" s="3"/>
+    <row r="50" spans="1:9" ht="120.5">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
       <c r="B50" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
       <c r="D50" s="3">
-        <v>1188395</v>
+        <v>1209203</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G50" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="H50" s="3"/>
+        <v>178</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="H50" s="3">
+        <v>3527336</v>
+      </c>
     </row>
-    <row r="51" spans="1:8" ht="107" hidden="1">
-      <c r="A51" s="12"/>
-      <c r="B51" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D51" s="25">
-        <v>1192485</v>
-      </c>
-      <c r="E51" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F51" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="G51" s="27" t="s">
-        <v>142</v>
+    <row r="51" spans="1:9" ht="77">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>284</v>
       </c>
       <c r="H51" s="3"/>
+      <c r="I51" s="1">
+        <v>3544420</v>
+      </c>
     </row>
-    <row r="52" spans="1:8" ht="145.5" hidden="1">
-      <c r="A52" s="3"/>
-      <c r="B52" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F52" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="G52" s="27" t="s">
-        <v>93</v>
+    <row r="52" spans="1:9" ht="40.5">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D52" s="3">
+        <v>188917</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>190</v>
       </c>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:8" ht="293" hidden="1">
-      <c r="A53" s="3"/>
-      <c r="B53" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D53" s="25">
-        <v>1195076</v>
-      </c>
-      <c r="E53" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F53" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="G53" s="27" t="s">
-        <v>94</v>
+    <row r="53" spans="1:9" ht="128">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>286</v>
       </c>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="1:8" ht="54" hidden="1">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3" t="s">
+    <row r="54" spans="1:9" s="14" customFormat="1" ht="67.5">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="D54" s="12">
+        <v>1216325</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="G54" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="H54" s="12"/>
+    </row>
+    <row r="55" spans="1:9" s="14" customFormat="1" ht="54">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D54" s="3">
-        <v>1197131</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G54" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="H54" s="3"/>
+      <c r="C55" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="12">
+        <v>1217317</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="G55" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="H55" s="12"/>
     </row>
-    <row r="55" spans="1:8" ht="39.5" hidden="1">
-      <c r="A55" s="3"/>
-      <c r="B55" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="D55" s="25">
-        <v>1196815</v>
-      </c>
-      <c r="E55" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="F55" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G55" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="H55" s="3">
-        <v>3477576</v>
-      </c>
+    <row r="56" spans="1:9" s="14" customFormat="1" ht="54">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="12">
+        <v>1217304</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="G56" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="H56" s="12"/>
     </row>
-    <row r="56" spans="1:8" ht="38.5" hidden="1">
-      <c r="A56" s="3"/>
-      <c r="B56" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="D56" s="25">
-        <v>1197229</v>
-      </c>
-      <c r="E56" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="F56" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G56" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="H56" s="3"/>
+    <row r="57" spans="1:9" s="14" customFormat="1" ht="40.5">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="D57" s="12">
+        <v>1219462</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="G57" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H57" s="12"/>
     </row>
-    <row r="57" spans="1:8" ht="38.5" hidden="1">
-      <c r="A57" s="3"/>
-      <c r="B57" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C57" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="D57" s="25">
-        <v>1197235</v>
-      </c>
-      <c r="E57" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F57" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="G57" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="H57" s="3"/>
+    <row r="58" spans="1:9" s="14" customFormat="1" ht="152">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="G58" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="H58" s="12"/>
     </row>
-    <row r="58" spans="1:8" ht="112.5" hidden="1">
-      <c r="A58" s="3"/>
-      <c r="B58" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="D58" s="25">
-        <v>1198000</v>
-      </c>
-      <c r="E58" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F58" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="G58" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="H58" s="3"/>
+    <row r="59" spans="1:9" s="14" customFormat="1">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="12"/>
     </row>
-    <row r="59" spans="1:8" ht="50" hidden="1">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G59" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="H59" s="3">
-        <v>3495415</v>
-      </c>
+    <row r="60" spans="1:9" s="14" customFormat="1">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="12"/>
     </row>
-    <row r="60" spans="1:8" ht="66.5" hidden="1">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G60" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="H60" s="3"/>
+    <row r="61" spans="1:9" s="14" customFormat="1">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="12"/>
     </row>
-    <row r="61" spans="1:8" ht="104" hidden="1">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G61" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="H61" s="3">
-        <v>3495633</v>
-      </c>
+    <row r="62" spans="1:9" s="14" customFormat="1">
+      <c r="A62" s="4">
+        <v>61</v>
+      </c>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="12"/>
     </row>
-    <row r="62" spans="1:8" ht="161" hidden="1">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3">
-        <v>1202186</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G62" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="H62" s="3"/>
+    <row r="63" spans="1:9" s="14" customFormat="1">
+      <c r="A63" s="4">
+        <v>62</v>
+      </c>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="12"/>
     </row>
-    <row r="63" spans="1:8" ht="39.5">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="G63" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="H63" s="3"/>
+    <row r="64" spans="1:9" s="14" customFormat="1">
+      <c r="A64" s="4">
+        <v>63</v>
+      </c>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="12"/>
     </row>
-    <row r="64" spans="1:8" ht="196.5" hidden="1">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D64" s="3">
-        <v>1202186</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="G64" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="H64" s="32" t="s">
-        <v>174</v>
-      </c>
+    <row r="65" spans="1:8" s="14" customFormat="1">
+      <c r="A65" s="4">
+        <v>64</v>
+      </c>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="12"/>
     </row>
-    <row r="65" spans="1:8" ht="37.5" hidden="1">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="G65" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="H65" s="3"/>
+    <row r="66" spans="1:8" s="14" customFormat="1">
+      <c r="A66" s="4">
+        <v>65</v>
+      </c>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="12"/>
     </row>
-    <row r="66" spans="1:8" ht="25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="G66" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="H66" s="3"/>
+    <row r="67" spans="1:8" s="14" customFormat="1">
+      <c r="A67" s="12"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="12"/>
     </row>
-    <row r="67" spans="1:8" ht="53" hidden="1">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G67" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="H67" s="3"/>
+    <row r="68" spans="1:8" s="14" customFormat="1">
+      <c r="A68" s="12"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="12"/>
     </row>
-    <row r="68" spans="1:8" ht="77" hidden="1">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F68" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="G68" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="H68" s="3"/>
+    <row r="69" spans="1:8" s="14" customFormat="1">
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="12"/>
     </row>
-    <row r="69" spans="1:8" ht="138.5" hidden="1">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D69" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F69" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="G69" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="H69" s="3"/>
-    </row>
-    <row r="70" spans="1:8" ht="76" hidden="1">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D70" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F70" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="G70" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="H70" s="3"/>
-    </row>
-    <row r="71" spans="1:8" ht="62.5" hidden="1">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="G71" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="H71" s="3"/>
-    </row>
-    <row r="72" spans="1:8" ht="52" hidden="1">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="G72" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="H72" s="3"/>
-    </row>
-    <row r="73" spans="1:8" ht="120.5">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D73" s="3">
-        <v>1209203</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="G73" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="H73" s="3">
-        <v>3527336</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="64.5">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="G74" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="H74" s="3"/>
-    </row>
-    <row r="75" spans="1:8" ht="40.5" hidden="1">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D75" s="3">
-        <v>188917</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="G75" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="H75" s="3"/>
-    </row>
-    <row r="76" spans="1:8" ht="103">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="G76" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="H76" s="3"/>
-    </row>
-    <row r="77" spans="1:8" s="15" customFormat="1" ht="67.5" hidden="1">
-      <c r="A77" s="13"/>
-      <c r="B77" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="D77" s="13">
-        <v>1216325</v>
-      </c>
-      <c r="E77" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="F77" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="G77" s="21" t="s">
-        <v>272</v>
-      </c>
-      <c r="H77" s="13"/>
-    </row>
-    <row r="78" spans="1:8" s="15" customFormat="1" ht="54">
-      <c r="A78" s="13"/>
-      <c r="B78" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D78" s="13">
-        <v>1217317</v>
-      </c>
-      <c r="E78" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="F78" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="G78" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="H78" s="13"/>
-    </row>
-    <row r="79" spans="1:8" s="15" customFormat="1" ht="54">
-      <c r="A79" s="13"/>
-      <c r="B79" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D79" s="13">
-        <v>1217304</v>
-      </c>
-      <c r="E79" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="F79" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="G79" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="H79" s="13"/>
-    </row>
-    <row r="80" spans="1:8" s="15" customFormat="1">
-      <c r="A80" s="13"/>
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="21"/>
-      <c r="H80" s="13"/>
-    </row>
-    <row r="81" spans="1:8" s="15" customFormat="1">
-      <c r="A81" s="13"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="13"/>
-    </row>
-    <row r="82" spans="1:8" s="15" customFormat="1">
-      <c r="A82" s="13"/>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="21"/>
-      <c r="H82" s="13"/>
-    </row>
-    <row r="83" spans="1:8" s="15" customFormat="1">
-      <c r="A83" s="13"/>
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="21"/>
-      <c r="H83" s="13"/>
-    </row>
-    <row r="84" spans="1:8" s="15" customFormat="1">
-      <c r="A84" s="13"/>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="21"/>
-      <c r="H84" s="13"/>
-    </row>
-    <row r="85" spans="1:8" s="15" customFormat="1">
-      <c r="A85" s="13"/>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="21"/>
-      <c r="H85" s="13"/>
-    </row>
-    <row r="86" spans="1:8" s="15" customFormat="1">
-      <c r="A86" s="13"/>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="21"/>
-      <c r="H86" s="13"/>
-    </row>
-    <row r="87" spans="1:8" s="15" customFormat="1">
-      <c r="A87" s="13"/>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="21"/>
-      <c r="H87" s="13"/>
-    </row>
-    <row r="88" spans="1:8" s="15" customFormat="1">
-      <c r="A88" s="13"/>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="21"/>
-      <c r="H88" s="13"/>
-    </row>
-    <row r="89" spans="1:8" s="15" customFormat="1">
-      <c r="A89" s="13"/>
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="21"/>
-      <c r="H89" s="13"/>
-    </row>
-    <row r="90" spans="1:8" s="15" customFormat="1">
-      <c r="A90" s="13"/>
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="21"/>
-      <c r="H90" s="13"/>
-    </row>
-    <row r="91" spans="1:8" s="15" customFormat="1">
-      <c r="A91" s="13"/>
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="21"/>
-      <c r="H91" s="13"/>
-    </row>
-    <row r="92" spans="1:8" s="15" customFormat="1">
-      <c r="A92" s="13"/>
-      <c r="B92" s="13"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="14"/>
-      <c r="G92" s="21"/>
-      <c r="H92" s="13"/>
-    </row>
-    <row r="93" spans="1:8" s="15" customFormat="1">
-      <c r="A93" s="13"/>
-      <c r="B93" s="13"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="21"/>
-      <c r="H93" s="13"/>
+    <row r="70" spans="1:8" s="14" customFormat="1">
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I79">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Open"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I58"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -27433,547 +27584,547 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="35"/>
-    <col min="2" max="2" width="124.1796875" style="36" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="36"/>
+    <col min="1" max="1" width="8.7265625" style="33"/>
+    <col min="2" max="2" width="124.1796875" style="34" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="34"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="34"/>
-      <c r="B2" s="33" t="s">
-        <v>198</v>
+      <c r="A2" s="32"/>
+      <c r="B2" s="31" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="34">
+      <c r="A3" s="32">
         <v>0</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>253</v>
+      <c r="B3" s="31" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="34">
+      <c r="A4" s="32">
         <v>1</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>254</v>
+      <c r="B4" s="31" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="34">
+      <c r="A5" s="32">
         <v>2</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>255</v>
+      <c r="B5" s="31" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="34">
+      <c r="A6" s="32">
         <v>3</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>256</v>
+      <c r="B6" s="31" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="34">
+      <c r="A7" s="32">
         <v>4</v>
       </c>
-      <c r="B7" s="33" t="s">
-        <v>199</v>
+      <c r="B7" s="31" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="34">
+      <c r="A8" s="32">
         <v>5</v>
       </c>
-      <c r="B8" s="33" t="s">
-        <v>257</v>
+      <c r="B8" s="31" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="34">
+      <c r="A9" s="32">
         <v>6</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>200</v>
+      <c r="B9" s="31" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="34">
+      <c r="A10" s="32">
         <v>7</v>
       </c>
-      <c r="B10" s="33" t="s">
-        <v>252</v>
+      <c r="B10" s="31" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="34">
+      <c r="A11" s="32">
         <v>8</v>
       </c>
-      <c r="B11" s="33" t="s">
-        <v>201</v>
+      <c r="B11" s="31" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="34">
+      <c r="A12" s="32">
         <v>9</v>
       </c>
-      <c r="B12" s="33" t="s">
-        <v>249</v>
+      <c r="B12" s="31" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="34">
+      <c r="A13" s="32">
         <v>10</v>
       </c>
-      <c r="B13" s="33" t="s">
-        <v>251</v>
+      <c r="B13" s="31" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="34">
+      <c r="A14" s="32">
         <v>11</v>
       </c>
-      <c r="B14" s="33" t="s">
-        <v>259</v>
+      <c r="B14" s="31" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="34">
+      <c r="A15" s="32">
         <v>12</v>
       </c>
-      <c r="B15" s="33" t="s">
-        <v>202</v>
+      <c r="B15" s="31" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="34">
+      <c r="A16" s="32">
         <v>13</v>
       </c>
-      <c r="B16" s="33" t="s">
-        <v>203</v>
+      <c r="B16" s="31" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="34">
+      <c r="A17" s="32">
         <v>14</v>
       </c>
-      <c r="B17" s="33" t="s">
-        <v>204</v>
+      <c r="B17" s="31" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="34">
+      <c r="A18" s="32">
         <v>15</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>282</v>
+      <c r="B18" s="31" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="34">
+      <c r="A19" s="32">
         <v>16</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>260</v>
+      <c r="B19" s="31" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="34">
+      <c r="A20" s="32">
         <v>17</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>205</v>
+      <c r="B20" s="31" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="34">
+      <c r="A21" s="32">
         <v>18</v>
       </c>
-      <c r="B21" s="33" t="s">
-        <v>206</v>
+      <c r="B21" s="31" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="34">
+      <c r="A22" s="32">
         <v>19</v>
       </c>
-      <c r="B22" s="33" t="s">
-        <v>207</v>
+      <c r="B22" s="31" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="34">
+      <c r="A23" s="32">
         <v>20</v>
       </c>
-      <c r="B23" s="33" t="s">
-        <v>208</v>
+      <c r="B23" s="31" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="34">
+      <c r="A24" s="32">
         <v>21</v>
       </c>
-      <c r="B24" s="33" t="s">
-        <v>209</v>
+      <c r="B24" s="31" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="34">
+      <c r="A25" s="32">
         <v>22</v>
       </c>
-      <c r="B25" s="33" t="s">
-        <v>210</v>
+      <c r="B25" s="31" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="34">
+      <c r="A26" s="32">
         <v>23</v>
       </c>
-      <c r="B26" s="33" t="s">
-        <v>211</v>
+      <c r="B26" s="31" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="34">
+      <c r="A27" s="32">
         <v>24</v>
       </c>
-      <c r="B27" s="33" t="s">
-        <v>212</v>
+      <c r="B27" s="31" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="34">
+      <c r="A28" s="32">
         <v>25</v>
       </c>
-      <c r="B28" s="33" t="s">
-        <v>213</v>
+      <c r="B28" s="31" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="34">
+      <c r="A29" s="32">
         <v>26</v>
       </c>
-      <c r="B29" s="33" t="s">
-        <v>214</v>
+      <c r="B29" s="31" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="34">
+      <c r="A30" s="32">
         <v>27</v>
       </c>
-      <c r="B30" s="33" t="s">
-        <v>215</v>
+      <c r="B30" s="31" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="34">
+      <c r="A31" s="32">
         <v>28</v>
       </c>
-      <c r="B31" s="33" t="s">
-        <v>216</v>
+      <c r="B31" s="31" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="34">
+      <c r="A32" s="32">
         <v>29</v>
       </c>
-      <c r="B32" s="33" t="s">
-        <v>217</v>
+      <c r="B32" s="31" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="34">
+      <c r="A33" s="32">
         <v>30</v>
       </c>
-      <c r="B33" s="33" t="s">
-        <v>218</v>
+      <c r="B33" s="31" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="34">
+      <c r="A34" s="32">
         <v>31</v>
       </c>
-      <c r="B34" s="33" t="s">
-        <v>219</v>
+      <c r="B34" s="31" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="34">
+      <c r="A35" s="32">
         <v>32</v>
       </c>
-      <c r="B35" s="33" t="s">
-        <v>220</v>
+      <c r="B35" s="31" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="34">
+      <c r="A36" s="32">
         <v>33</v>
       </c>
-      <c r="B36" s="33" t="s">
-        <v>221</v>
+      <c r="B36" s="31" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="34">
+      <c r="A37" s="32">
         <v>34</v>
       </c>
-      <c r="B37" s="33" t="s">
-        <v>262</v>
+      <c r="B37" s="31" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="34">
+      <c r="A38" s="32">
         <v>35</v>
       </c>
-      <c r="B38" s="33" t="s">
-        <v>261</v>
+      <c r="B38" s="31" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="34">
+      <c r="A39" s="32">
         <v>36</v>
       </c>
-      <c r="B39" s="33" t="s">
-        <v>222</v>
+      <c r="B39" s="31" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="34">
+      <c r="A40" s="32">
         <v>37</v>
       </c>
-      <c r="B40" s="33" t="s">
-        <v>223</v>
+      <c r="B40" s="31" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="34">
+      <c r="A41" s="32">
         <v>38</v>
       </c>
-      <c r="B41" s="33" t="s">
-        <v>224</v>
+      <c r="B41" s="31" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="34">
+      <c r="A42" s="32">
         <v>39</v>
       </c>
-      <c r="B42" s="33" t="s">
-        <v>225</v>
+      <c r="B42" s="31" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="34">
+      <c r="A43" s="32">
         <v>40</v>
       </c>
-      <c r="B43" s="33" t="s">
-        <v>226</v>
+      <c r="B43" s="31" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="34">
+      <c r="A44" s="32">
         <v>41</v>
       </c>
-      <c r="B44" s="33" t="s">
-        <v>227</v>
+      <c r="B44" s="31" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="34">
+      <c r="A45" s="32">
         <v>42</v>
       </c>
-      <c r="B45" s="33" t="s">
-        <v>228</v>
+      <c r="B45" s="31" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="34">
+      <c r="A46" s="32">
         <v>43</v>
       </c>
-      <c r="B46" s="33" t="s">
-        <v>229</v>
+      <c r="B46" s="31" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="34">
+      <c r="A47" s="32">
         <v>44</v>
       </c>
-      <c r="B47" s="33" t="s">
-        <v>230</v>
+      <c r="B47" s="31" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="34">
+      <c r="A48" s="32">
         <v>45</v>
       </c>
-      <c r="B48" s="33" t="s">
-        <v>231</v>
+      <c r="B48" s="31" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="34">
+      <c r="A49" s="32">
         <v>46</v>
       </c>
-      <c r="B49" s="33" t="s">
-        <v>232</v>
+      <c r="B49" s="31" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="34">
+      <c r="A50" s="32">
         <v>47</v>
       </c>
-      <c r="B50" s="33" t="s">
-        <v>233</v>
+      <c r="B50" s="31" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="34">
+      <c r="A51" s="32">
         <v>48</v>
       </c>
-      <c r="B51" s="33" t="s">
-        <v>234</v>
+      <c r="B51" s="31" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="34">
+      <c r="A52" s="32">
         <v>49</v>
       </c>
-      <c r="B52" s="33" t="s">
-        <v>235</v>
+      <c r="B52" s="31" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="34">
+      <c r="A53" s="32">
         <v>50</v>
       </c>
-      <c r="B53" s="33" t="s">
-        <v>236</v>
+      <c r="B53" s="31" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="34">
+      <c r="A54" s="32">
         <v>51</v>
       </c>
-      <c r="B54" s="33" t="s">
-        <v>237</v>
+      <c r="B54" s="31" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="34">
+      <c r="A55" s="32">
         <v>52</v>
       </c>
-      <c r="B55" s="33" t="s">
-        <v>238</v>
+      <c r="B55" s="31" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="34">
+      <c r="A56" s="32">
         <v>53</v>
       </c>
-      <c r="B56" s="33" t="s">
-        <v>239</v>
+      <c r="B56" s="31" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="34">
+      <c r="A57" s="32">
         <v>54</v>
       </c>
-      <c r="B57" s="33" t="s">
-        <v>240</v>
+      <c r="B57" s="31" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="34">
+      <c r="A58" s="32">
         <v>55</v>
       </c>
-      <c r="B58" s="33" t="s">
-        <v>241</v>
+      <c r="B58" s="31" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="34">
+      <c r="A59" s="32">
         <v>56</v>
       </c>
-      <c r="B59" s="33" t="s">
-        <v>242</v>
+      <c r="B59" s="31" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="34">
+      <c r="A60" s="32">
         <v>57</v>
       </c>
-      <c r="B60" s="33" t="s">
-        <v>243</v>
+      <c r="B60" s="31" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="34">
+      <c r="A61" s="32">
         <v>58</v>
       </c>
-      <c r="B61" s="33" t="s">
-        <v>263</v>
+      <c r="B61" s="31" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="34">
+      <c r="A62" s="32">
         <v>59</v>
       </c>
-      <c r="B62" s="33" t="s">
-        <v>250</v>
+      <c r="B62" s="31" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="34">
+      <c r="A63" s="32">
         <v>60</v>
       </c>
-      <c r="B63" s="33" t="s">
-        <v>244</v>
+      <c r="B63" s="31" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="34">
+      <c r="A64" s="32">
         <v>61</v>
       </c>
-      <c r="B64" s="33" t="s">
-        <v>245</v>
+      <c r="B64" s="31" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="34">
+      <c r="A65" s="32">
         <v>62</v>
       </c>
-      <c r="B65" s="33" t="s">
-        <v>258</v>
+      <c r="B65" s="31" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="34">
+      <c r="A66" s="32">
         <v>63</v>
       </c>
-      <c r="B66" s="33" t="s">
-        <v>246</v>
+      <c r="B66" s="31" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="34">
+      <c r="A67" s="32">
         <v>64</v>
       </c>
-      <c r="B67" s="33" t="s">
-        <v>247</v>
+      <c r="B67" s="31" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="34"/>
-      <c r="B68" s="33" t="s">
-        <v>248</v>
+      <c r="A68" s="32"/>
+      <c r="B68" s="31" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/[Issue]DriverSharon.xlsx
+++ b/[Issue]DriverSharon.xlsx
@@ -4,23 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="120" windowWidth="19010" windowHeight="7130"/>
+    <workbookView xWindow="80" yWindow="120" windowWidth="14320" windowHeight="5460"/>
   </bookViews>
   <sheets>
     <sheet name="TT Issue" sheetId="1" r:id="rId1"/>
-    <sheet name="MCFG" sheetId="3" r:id="rId2"/>
-    <sheet name="Check MBN List" sheetId="5" r:id="rId3"/>
-    <sheet name="工作表2" sheetId="6" r:id="rId4"/>
+    <sheet name="Lesson Learnt" sheetId="8" r:id="rId2"/>
+    <sheet name="MCFG" sheetId="3" r:id="rId3"/>
+    <sheet name="Check MBN List" sheetId="5" r:id="rId4"/>
+    <sheet name="工作表2" sheetId="6" r:id="rId5"/>
+    <sheet name="工作表1" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TT Issue'!$A$1:$I$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TT Issue'!$A$1:$I$66</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="341">
   <si>
     <t>TT Number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -23861,155 +23863,32 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">[7/12] Sharon: Need AS comment, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>同台車測試，約同時出現通話雙向無聲，都有出現</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>RLF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>後回復通話。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Case#1217317 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>動態</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Draco1(+0 02:05:25~ 02:05:43) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>靜態</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Jedi 2
-Case#1217304 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>動態</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Jedi1 (+0 02:05:32~ 02:05:50)   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>靜態</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Jedi 3
+      <t>[ZS620KL]FT-TW-CHT-CSFB: DUT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">通話時發生短暫雙向短暫靜音
 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PIC: Sharon/Frank</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>[ZS620KL]FT-TW-CHT-CSFB: DUT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">通話時發生短暫雙向短暫靜音
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>PIC: Sharon/Frank</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>[ZS600KL]FT-TW-CHT-CSFB: DUT</t>
     </r>
     <r>
@@ -24031,585 +23910,6 @@
         <family val="2"/>
       </rPr>
       <t>PIC: Sharon/Frank</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[6/12] Sharon:  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>此無聲問題整通無聲</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(0x1805</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>就已無聲</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，只有響鈴聲</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>鈴聲來自於網路</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> progress_desc = 8 (0x8))</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，請</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>AS/Frank</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">幫忙再分析問題。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[6/13] Frank open</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> case#03527336 need follow this case.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[6/15] Qcom</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>台北</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Wade</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>看到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>third party audio module</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>有以下</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>error log</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，請</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Audio team</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">協助分析
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[6/19] BSP/Ken: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>正常通話也有這些紅色的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">NXP library </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>印出的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">error messages, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>所以</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ignore</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>這些</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>error messages</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>應為合理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>所以已請</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Qualcomm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>再明確指出造成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>call set up failure</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">error messages from fail case QXDM log </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>及相對應的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">logcat_log
-[6/26] Collect Customer Fail Log, Bruno and YT check : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>同樣因為沒有收到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>VSS_ISTREAM_EVT_READY (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>modem START_VOICE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>無</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> APPs START_VOICE)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，所以</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">vocoder </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>modem voice adapter module</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">被丟掉了。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[6/29] BSP/Ken</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>今天用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Qualcomm QRD </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>手機</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (SDM660 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>版本</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>藍芽連接</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Samsung Gear S3 classic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>手錶測試</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>也有發生無聲現象</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -24630,112 +23930,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> ZE520KL[Leo] [Leo_JP_O]CDFT-Chengdu-CUCC/CMCC:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>CUCC 4G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>強信號環境</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(-98dBm)Idle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>過程中喚醒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>DUT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，連續彈出兩次</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Modem crash(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>類型未知</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)(2/8H)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Leo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[7/18] no Log, ask FT/Sonic to attached log.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -24995,8 +24190,6829 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">[7/20] Vincent: case#03584219 [JEDI]SIM1/SIM2 swap how to setting GPIO
+    <t>VSID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x11c05000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VoWiFi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VoLTE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Audio</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jedi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lesson Learnt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto Answer  NV#74 =0100 / Disable Auto Answer NV#74 = 0000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vocoder G.711 
+SDM845: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>插</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>VoLTE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">-&gt; Active MBN -&gt;EFS file: /efsprofiles/overideconfig -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>*AudioProfile1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = "AMR_1_104;AMR_0_102;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>G711_2_108</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>" -&gt;reboot
+MSM8953:
+NV#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">73690 = PCMA  </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CC Alrerting </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>鈴聲來自於網路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> progress_desc = 8 (0x8)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SR stage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">RF Driver </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在做</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> RF Test </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>時，發生有些</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> band </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>會註冊不上的問題</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>無</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> search network)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Len </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>分析，有看到使用的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> SIM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>卡會選到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> CMCC MBN (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>目前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> image </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>放了一堆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Qualcomm default MBN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，又</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> CMCC MBN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>會有一些</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> LTE Band </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>相關的設定，例如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> NV#65633 (/nv/item_files/modem/mmode/lte_bandpref)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，所以可能測試上會遇到不預期的狀況。
+請</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Sharon </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>幫忙出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>移除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Qualcomm default MBN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的方法才解決這個問題。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>我們的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Factory image </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>都不會放</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> MBN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，這次是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Qualcomm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>來的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> AT3.1 modem </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>就有放</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> default MBN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>所導致的問題。
+因此之後，若有新的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> project/code base</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，應該要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>先請一部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Driver </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>檢查</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> build </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>出來的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> image </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>會不會有包</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Qualcomm default MBN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，因為</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> AS RF Driver </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不是用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> mini-porting </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>版本去做事情，因此不會知道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Qualcomm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>原生的版本有什麼潛在的問題。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SR stage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>沒有打</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>WW/NA sku</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的板子，因此板子是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>HQ rework</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RF component (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>有的是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>replace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，有的是上件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，然後再寄給我們，但</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>HQ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>沒有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>rework RF_ID (WW/NA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>各二片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。
+後來請</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>幫忙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>rework RF_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>後，發生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NA sku</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的板子無法開機的問題，可能是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>rework</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>壞了。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>確認拿到板子都沒動的狀況是可以開機的。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>由於主要是驗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RF Driver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RF_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>判斷的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>應該不會有問題，因此為避免</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>rework RF_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>把板子弄壞的風險，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>應該可以從</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>source code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>裡去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>hardcode RF_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，然後先驗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RF Driver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。或者拿一半數量的板子去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>rework RF_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>就好，避免無板子可驗的狀況發生。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Full porting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>完的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ara M1.3.6 (Post-CS1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，必發</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3G Modem crash</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。
+使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>M1.2.5 (CS mini-porting)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不會</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>crash</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Post-CS1 mini-porting (merged)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>版本就會</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>crash</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>了。
+後來用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Qualcomm device (QRD)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>測試</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>也是不會</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>crash</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>請</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>要善用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">QRD &amp; MTP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>HW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>做比對驗證，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>後續有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Qualcomm Release </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>請務必也要用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>QRD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>確認</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Qualcomm SW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>沒有問題</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[12/27] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在做</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>CA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>測試時，發現</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Post-CS1 (M1.3.x)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不會報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3CA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>給網路，而</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>CS (M1.2.x)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>沒有問題。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>因為</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>M1.3.x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不是工廠版，所以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>沒有做</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>WBS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的驗證，沒有提早發現這個問題。
+之後應該</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>每次換</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>codebase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>時，都要請</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>做</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>WBS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，確保帶出去的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>UE capabilities</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>都沒有問題。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>HQ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在回報問題時，說明使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>11/20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>号前的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>modem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ARA_SR_20171114_1114.bin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>）没有问题，但</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Apache</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>說明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ARA_SR_20171114_1114 source code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>受限空間，已經刪除。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>由於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>硬碟空間不足，造成刪除給</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>HQ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的版本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不可追蹤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不可考的狀況，若</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在開發階段有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"SW Configuration Management"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>應該會比較好。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>請一部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>幫忙研究是否可行。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>實作上不知道會不會有困難，因為這樣需要有一個跟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>official branch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>同步的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>test branch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>可以給大家開發使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>可以任意</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>check in for test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>以保留</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>source</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>git server)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Post-CS2 + ST#131981</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在驗證</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>image</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>時，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>發現有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>MBN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>進版就會發生無法自動選</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>MBN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的問題。
+同時</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Post-CS2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>升到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Post-CS3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，沒有這個問題。
+後來</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Michael</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>有看到在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Post-CS3 Release History</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>有相關</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>MBN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>CR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，因此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>YT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>同步實驗將</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Post-CS3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>CR#2156997</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>加到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Post-CS2+ST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，可以成功自動選</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>MBN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>之後遇到非</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ASUS CR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的問題時，可以先</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>檢查新版</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>codebase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Release History</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>有沒有類似的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>CR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>M3.5.11.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>開啟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ASDiv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，但在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>M3.5.11.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>又關閉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ASDiv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">，因為以下原因。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1) RF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>TIM/H3G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的測試，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>conductive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>測試需關閉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ASDiv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>OTA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">測試時再打開。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>打開的話，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ASDiv MTPL trigger</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>條件的參數還需要再改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NV#73581</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>應該要討論好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ASDiv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的啟動條件。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. RF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>要求一版</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>modem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>可支援開</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>關</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ASDiv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，因此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>最好的做法是有小瓢蟲可以控制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。可以找</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>BSP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">討論如何實作。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2. ASDiv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的啟動條件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Lab Test (AS WBS)
+ - Check ASDiv NVs (SIM1/SIM2)
+ - FT Test
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3. Ara</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>有遇到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>VIP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3G No Service</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>問題，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ASDiv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>應可改善。因此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>最好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ASDiv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>可以早點完成，然後導入讓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>beta user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，以避免此類問題的發生。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TIM issue: ANT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>TIM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>認證，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>GSM1800</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>LTE B3 OTA (wireless) FAIL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，離</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PASS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>約</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1~1.5 dB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ANT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RF team</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>會再嘗試優化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Div ANT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RF path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>wireless performance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ANT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>希望</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>能協助提供方法，僅將</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>GSM1800</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>LTE B3 Tx/PRx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>走</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Div ANT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，其餘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>band Tx/PRx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>仍走</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pri ANT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>但</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>設定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ASDiv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不成功，開</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>case#03431547</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>給</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Qualcomm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Project</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>開賣後，每個國家的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>TA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>測試報的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>issue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，都是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>TA gating issue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Qualcomm case</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>都要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>highlight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SAR QCN issue:
+1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>一開始是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2/21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在準備</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>VF_IT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>機台時，發現</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ara</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>default QCN for SAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Titan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的不同，因此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ara</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>需要導入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SAR QCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2. V9 QCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2/26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>完成，有通知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SWPM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>工廠要包新的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>QCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，因此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SWPM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2/26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>也有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>build</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>廠測版</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>15.0501.1711.40_M1.2.2.P8 + V9 QCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，請</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>HQ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">導入產線。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>因為當時要降</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>operator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>只有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>VF_IT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>VF_TR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>都還沒生產，因此沒有特別注意要管</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>V8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>以前的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>QCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>生產出來的機台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主板</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>後來在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3/22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>提出有新增的國家需要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>FCC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>因此要降</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，最後討論的結果是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>VF_IT/ VF_TR/ Thailand/ Philippine/ Brazil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>這</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>組</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Country code/CID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>enable SAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>功能。
+但這時候也</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>沒想到要問</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>V8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>以前的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>QCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>生產出來的機台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主板是不是會出貨到新增的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>組</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Thailand/ Philippine/ Brazil)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">5. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4/17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>發現</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>TT#1182820</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的問題是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>導致的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (CN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>測試的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>機台使用到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Philippine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Country code/CID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>組合，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>QCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>又不是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>V9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>以後的版本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，因此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>提出用判斷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>QCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>版本的方式來控制要不要啟動</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SAR (V9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>以後的版本才啟動</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>；
+但</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>也想確認是不是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>MP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>都使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>V9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>以後的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>QCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，因此請我問</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>project team</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>6. 4/20 project team</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>查出的結果，有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>7140pcs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>出貨到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Philippine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，且還有庫存板</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>整機也要查是不是用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>V8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>以前的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>QCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，因此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>project team</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>有提出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>要做的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">如下。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Action 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>針對庫存板</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>整機，請</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>提供</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>check QCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的指令，及卡下的機台要更新的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Partial QCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，更新完要含</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>V9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>版號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Action 2: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>請</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>BSP/PS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>確認</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>FOTA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的方式可以解決。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>跟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>QCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>相關的問題，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>要確保出貨的機台都有解到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>RF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>要求出一版關閉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ASDiv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>shipping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>版</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>for TIM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，因為</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ASDiv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>會影響</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>TIM FAI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的測試；之後</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>FOTA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>再打開</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ASDiv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[5/4] RF Alan:
+1. ASDiv: disabled
+2. ANT tuner OL: disabled
+3. ANT tuner ACL: disabled
+4. ANT tuner MAAT: disabled
+Apache: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RF Alan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>確認，僅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>enable ANT tuner OL mode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，其餘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>disable (OL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>太多</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>第一版</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>for TIM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>shipping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>版都要關閉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ASDiv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+另外也要詢問是否其他的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RF/ANT feature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>也要關閉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>例如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ANT tuner OL/ACL/MAAT)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Messager &gt; call manager :
+MSG                      00:45:14.114             NAS REG/High             [           reg_sim.c   8666] DS: SUB 2 =REG=  # MCC-MNC
+MSG                      00:45:14.114             NAS REG/High             [           reg_sim.c   8687] DS: SUB 2 =REG=  0 001- 01
+MSG                      00:45:14.122             NAS REG/High             [          reg_send.c   1906] DS: SUB 2 =REG= MMR_REG_REQ PLMN(1-1) RAT(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0-GSM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">,1-W,2-LTE,3-TDS) = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> netsel 0, type 1 grat_scan_done 1 trans_id 14 trm_timeout -1
+MSG                      00:45:17.567             NAS REG/High             [          reg_send.c   1906] DS: SUB 2 =REG= MMR_REG_REQ PLMN(1-1) RAT(0-GSM,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1-W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">,2-LTE,3-TDS) = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> netsel 0, type 2 grat_scan_done 1 trans_id 15 trm_timeout -1
+MSG                      00:45:20.518             NAS REG/High             [          reg_send.c   1906] DS: SUB 2 =REG= MMR_REG_REQ PLMN(1-1) RAT(0-GSM,1-W,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2-LTE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">,3-TDS) = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> netsel 0, type 2 grat_scan_done 1 trans_id 16 trm_timeout -1
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeChat interrupt VoWiFi call, Rx will lose.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log &gt; Common &gt; IMS &gt; RTP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message &gt; UMTS &gt; NAS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> ZE520KL[Leo] [Leo_JP_O]CDFT-Chengdu-CUCC/CMCC:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CUCC 4G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>強信號環境</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(-98dBm)Idle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>過程中喚醒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DUT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，連續彈出兩次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Modem crash(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>類型未知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)(2/8H)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zeus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[AMSS][Zeus][200092][PS_DRIVER] Merge MSM8998.LA.2.0.2 Pre-ES1 2.0.009.2 - Driver</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[7/26] Merge done.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Audio</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jedi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SIM1 and SIM2 swap:
+Set NV </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>73855</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> from QXDM NV browser as below and write and reboot/test ?
+num_of_active_slots  =  2 
+LOGICAL_SLOT_1   = UIM_SLOT_2
+LOGICAL_SLOT_2   = UIM_SLOT_1
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[US][O][TTY]DUT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>撥打給</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>REF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>時，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DUT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>無法透過</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TTY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>傳送訊息給</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>REF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，但</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>REF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>可以透過</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TTY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>傳送訊息給</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DUT</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[6/12] Sharon:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>此無聲問題整通無聲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(0x1805</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>就已無聲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，只有響鈴聲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>鈴聲來自於網路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> progress_desc = 8 (0x8))</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，請</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>AS/Frank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">幫忙再分析問題。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[6/13] Frank open</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> case#03527336 need follow this case.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[6/15] Qcom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>台北</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Wade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>看到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>third party audio module</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>有以下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>error log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，請</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Audio team</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">協助分析
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[6/19] BSP/Ken: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>正常通話也有這些紅色的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">NXP library </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>印出的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">error messages, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>所以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ignore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>這些</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>error messages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>應為合理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>所以已請</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Qualcomm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>再明確指出造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>call set up failure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">error messages from fail case QXDM log </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>及相對應的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">logcat_log
+[6/26] Collect Customer Fail Log, Bruno and YT check : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>同樣因為沒有收到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>VSS_ISTREAM_EVT_READY (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>modem START_VOICE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>無</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> APPs START_VOICE)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，所以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">vocoder </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>modem voice adapter module</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">被丟掉了。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[6/29] BSP/Ken</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>今天用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Qualcomm QRD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>手機</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (SDM660 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>版本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>藍芽連接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Samsung Gear S3 classic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>手錶測試</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">也有發生無聲現象
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[7/20] Close at CR#2107853. </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[7/20] Vincent: case#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>03584219</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> [JEDI]SIM1/SIM2 swap how to setting GPIO
 (History) ZE500KL case#01995114 
  Swap sim1 and sim2 GPIO for chipset 8916 &amp; 8929 as below:
  uim_uartdm_num_table[]
@@ -25101,8 +31117,794 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve">[7/23] Use ARA add modified files.
+[7/24] Solution:
+SIM1 and SIM2 swap:
+Set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NV 73855</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> from QXDM NV browser as below and write and reboot/test ?
+num_of_active_slots  =  2 
+LOGICAL_SLOT_1   = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>UIM_SLOT_2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+LOGICAL_SLOT_2   = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>UIM_SLOT_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+[7/26] Jack homework: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>how to NV#73855 work</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
       <t xml:space="preserve">
 </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[7/18] no Log, ask FT/Sonic to attached log.
+[8/01] Crash reason = uim.c:1455:UIM_CMD_RSP_TIMEOUT_RECOVERY_COUNTER = 0x4  &amp; retry FAIL for slot1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>為</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ASUS Trigger Crash </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>給</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> SIM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>卡片接觸不良的機制，請換一張</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SIM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>卡做測試。感謝。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Close)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[7/26] Modem : MO call : JEDI  REF TTY Fail: Rx </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Tx </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">部分，從聲波比較看來都有送達／收到。感謝。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. BSP/Rice, Audio/Jacky : Enable TTY property:  [ro.asus.phone.tty]: [1]  (DUT Fail/PASS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>都是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1)
+2. RIL/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>憲良</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>目前從</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>radio log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>看的出來</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TTY mode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">有打開
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[7/26] Now Audio EE/ShiJie work.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[7/31] Audio EE/Jacky : Please help to retest on 15.1610.1806.31 version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，另外請注意</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> TTY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>設備</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> AJ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>接頭接觸問題。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[7/20] BSP case#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>03584255</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> MT voWIFI call during Wechat VOIP , RX no sound
+[7/20] Modem  case#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">03585678 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Jedi][Voice] Rx no Voice : 0x1915 have date but 0x1805 not / loop BSP/Rice Austin to case
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">測試步驟：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.  'IPhone' We Chat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>通話</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to 'JEDI DUT' : 
+2. '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桌機</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>插播</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> VoWiFi call to 'JEDI DUT' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>：
+會發生兩種狀況</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: a. JEDI TX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>有問題，造成桌機聽不到聲音</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">; b. JEDI RX </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>有問題，話筒聽不到聲音。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+- NAS/LEN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Error Log: MSG 07:00:12.264 DS Real Time Transport Protocol/Error[ qpaudio.c 6624] LPV2: RX Damn something is really wrong.. stream has not consumed all the packets</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- Qualcomm/Siva: Would like to know Qualcomm default code result : MTP no problem. 
+BSP/Rice: Qualcomm WeChat : Audio Path / Jedi WeChat : Voice Path 
+- Qualcomm/Siva: 3rd party problem
+BSP/Rice: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>插耳機走</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Qualcomm default </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">也會出現問題。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[7/26] Now BSP discuss with Qualcomm/Audio. BSP case#03584255
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[8/02] Still askQualcomm/Audio for help.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[7/12] Sharon: Need AS comment, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>同台車測試，約同時出現通話雙向無聲，都有出現</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>RLF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>後回復通話。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Case#1217317 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>動態</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Draco1(+0 02:05:25~ 02:05:43) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>靜態</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Jedi 2
+Case#1217304 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>動態</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Jedi1 (+0 02:05:32~ 02:05:50)   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>靜態</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Jedi 3
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[8/02] No update</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -25761,11 +32563,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13.5"/>
@@ -26275,7 +33078,7 @@
       </c>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:8" ht="39.5">
+    <row r="21" spans="1:8" ht="39.5" hidden="1">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -26349,7 +33152,7 @@
       </c>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="1:8" ht="104">
+    <row r="24" spans="1:8" ht="104" hidden="1">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -26399,7 +33202,7 @@
       </c>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="1:8" ht="53">
+    <row r="26" spans="1:8" ht="53" hidden="1">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -26539,7 +33342,7 @@
       </c>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" ht="39.5">
+    <row r="32" spans="1:8" ht="39.5" hidden="1">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -26565,7 +33368,7 @@
         <v>3477576</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="38.5">
+    <row r="33" spans="1:8" ht="38.5" hidden="1">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -26589,7 +33392,7 @@
       </c>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" ht="38.5">
+    <row r="34" spans="1:8" ht="38.5" hidden="1">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -26613,7 +33416,7 @@
       </c>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" ht="112.5">
+    <row r="35" spans="1:8" ht="112.5" hidden="1">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -26637,7 +33440,7 @@
       </c>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" ht="50">
+    <row r="36" spans="1:8" ht="50" hidden="1">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -26661,7 +33464,7 @@
         <v>3495415</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="66.5">
+    <row r="37" spans="1:8" ht="66.5" hidden="1">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -26685,7 +33488,7 @@
       </c>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" ht="104">
+    <row r="38" spans="1:8" ht="104" hidden="1">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -26731,7 +33534,7 @@
       </c>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:8" ht="39.5">
+    <row r="40" spans="1:8" ht="39.5" hidden="1">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -26779,7 +33582,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="37.5">
+    <row r="42" spans="1:8" ht="37.5" hidden="1">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -26801,7 +33604,7 @@
       </c>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8" ht="37.5">
+    <row r="43" spans="1:8" ht="37.5" hidden="1">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -26819,11 +33622,11 @@
         <v>183</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:8" ht="53">
+    <row r="44" spans="1:8" ht="53" hidden="1">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -26845,7 +33648,7 @@
       </c>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8" ht="77">
+    <row r="45" spans="1:8" ht="77" hidden="1">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -26867,7 +33670,7 @@
       </c>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:8" ht="138.5">
+    <row r="46" spans="1:8" ht="138.5" hidden="1">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -26891,7 +33694,7 @@
       </c>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="1:8" ht="76">
+    <row r="47" spans="1:8" ht="76" hidden="1">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -26959,7 +33762,7 @@
       </c>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="1:9" ht="120.5">
+    <row r="50" spans="1:9" ht="133">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -26967,7 +33770,7 @@
         <v>35</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>47</v>
+        <v>335</v>
       </c>
       <c r="D50" s="3">
         <v>1209203</v>
@@ -26979,13 +33782,13 @@
         <v>178</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>275</v>
+        <v>334</v>
       </c>
       <c r="H50" s="3">
         <v>3527336</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="77">
+    <row r="51" spans="1:9" ht="77" hidden="1">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -26993,17 +33796,17 @@
         <v>170</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3" t="s">
         <v>171</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G51" s="18" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="1">
@@ -27034,7 +33837,7 @@
       </c>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:9" ht="128">
+    <row r="53" spans="1:9" ht="128" hidden="1">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -27052,7 +33855,7 @@
         <v>183</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H53" s="3"/>
     </row>
@@ -27064,7 +33867,7 @@
         <v>266</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D54" s="12">
         <v>1216325</v>
@@ -27080,7 +33883,7 @@
       </c>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:9" s="14" customFormat="1" ht="54">
+    <row r="55" spans="1:9" s="14" customFormat="1" ht="53">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -27097,14 +33900,14 @@
         <v>270</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G55" s="19" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:9" s="14" customFormat="1" ht="54">
+    <row r="56" spans="1:9" s="14" customFormat="1" ht="53">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -27121,96 +33924,128 @@
         <v>271</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:9" s="14" customFormat="1" ht="40.5">
+    <row r="57" spans="1:9" s="14" customFormat="1" ht="40.5" hidden="1">
       <c r="A57" s="4">
         <v>56</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D57" s="12">
         <v>1219462</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>280</v>
+        <v>325</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>282</v>
+        <v>337</v>
       </c>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:9" s="14" customFormat="1" ht="152">
+    <row r="58" spans="1:9" s="14" customFormat="1" ht="241.5" hidden="1">
       <c r="A58" s="4">
         <v>57</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>279</v>
+        <v>48</v>
       </c>
       <c r="D58" s="12"/>
       <c r="E58" s="12" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G58" s="19" t="s">
-        <v>291</v>
+        <v>336</v>
       </c>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:9" s="14" customFormat="1">
+    <row r="59" spans="1:9" s="14" customFormat="1" ht="182">
       <c r="A59" s="4">
         <v>58</v>
       </c>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="19"/>
+      <c r="B59" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D59" s="12">
+        <v>1208909</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="G59" s="19" t="s">
+        <v>339</v>
+      </c>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:9" s="14" customFormat="1">
+    <row r="60" spans="1:9" s="14" customFormat="1" ht="25" hidden="1">
       <c r="A60" s="4">
         <v>59</v>
       </c>
       <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
+      <c r="C60" s="12" t="s">
+        <v>326</v>
+      </c>
       <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="19"/>
+      <c r="E60" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="G60" s="19" t="s">
+        <v>329</v>
+      </c>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:9" s="14" customFormat="1">
+    <row r="61" spans="1:9" s="14" customFormat="1" ht="66.5">
       <c r="A61" s="4">
         <v>60</v>
       </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="19"/>
+      <c r="B61" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="D61" s="12">
+        <v>1221542</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="G61" s="19" t="s">
+        <v>338</v>
+      </c>
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:9" s="14" customFormat="1">
+    <row r="62" spans="1:9" s="14" customFormat="1" hidden="1">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -27222,7 +34057,7 @@
       <c r="G62" s="19"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:9" s="14" customFormat="1">
+    <row r="63" spans="1:9" s="14" customFormat="1" hidden="1">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -27234,7 +34069,7 @@
       <c r="G63" s="19"/>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="1:9" s="14" customFormat="1">
+    <row r="64" spans="1:9" s="14" customFormat="1" hidden="1">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -27246,7 +34081,7 @@
       <c r="G64" s="19"/>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="1:8" s="14" customFormat="1">
+    <row r="65" spans="1:8" s="14" customFormat="1" hidden="1">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -27258,7 +34093,7 @@
       <c r="G65" s="19"/>
       <c r="H65" s="12"/>
     </row>
-    <row r="66" spans="1:8" s="14" customFormat="1">
+    <row r="66" spans="1:8" s="14" customFormat="1" hidden="1">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -27311,7 +34146,13 @@
       <c r="H70" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I58"/>
+  <autoFilter ref="A1:I66">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Audio"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -27319,6 +34160,258 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="108.453125" customWidth="1"/>
+    <col min="3" max="3" width="97.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:3" ht="73">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" s="11"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" spans="1:3" ht="159.5">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="1:3" ht="87">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+    </row>
+    <row r="18" spans="1:3" ht="74.5">
+      <c r="A18" s="8">
+        <v>1</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="59.5">
+      <c r="A19" s="8">
+        <v>2</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="60">
+      <c r="A20" s="8">
+        <v>3</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30">
+      <c r="A21" s="8">
+        <v>4</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="74">
+      <c r="A22" s="8">
+        <v>5</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="74.5">
+      <c r="A23" s="8">
+        <v>6</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="103">
+      <c r="A24" s="8">
+        <v>7</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="60">
+      <c r="A25" s="8">
+        <v>8</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="254">
+      <c r="A26" s="8">
+        <v>9</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="102.5">
+      <c r="A27" s="8">
+        <v>10</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
@@ -27542,11 +34635,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:G6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -27580,11 +34673,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -27726,7 +34819,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -28131,4 +35224,50 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F5:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetData>
+    <row r="5" spans="6:8">
+      <c r="F5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="6:8">
+      <c r="G6" t="s">
+        <v>288</v>
+      </c>
+      <c r="H6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="6:8">
+      <c r="G7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="6:8">
+      <c r="G8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>